--- a/biology/Botanique/Cincinnobotrys_letouzeyi/Cincinnobotrys_letouzeyi.xlsx
+++ b/biology/Botanique/Cincinnobotrys_letouzeyi/Cincinnobotrys_letouzeyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cincinnobotrys letouzeyi Jacq.-Fél. est une espèce de plantes de la famille des Melastomataceae et du genre Cincinnobotrys, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique letouzeyi rend hommage au botaniste français René Letouzey[2], qui récolta l'holotype en 1975[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique letouzeyi rend hommage au botaniste français René Letouzey, qui récolta l'holotype en 1975.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante endémique de la région du Sud-Ouest (Cameroun), qui n'a été observée que sur deux sites, aux environs de Mamfé, à 45 km de Numba, également à Bechati sur les hauts plateaux du Lebialem (Lebialem Highlands[4]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante endémique de la région du Sud-Ouest (Cameroun), qui n'a été observée que sur deux sites, aux environs de Mamfé, à 45 km de Numba, également à Bechati sur les hauts plateaux du Lebialem (Lebialem Highlands).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cincinnobotrys letouzeyi est une herbe rhizomateuse rampante qui se développe dans la forêt tropicale, sur des rochers à proximité de cours d'eau, à une altitude d'environ 460 m[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cincinnobotrys letouzeyi est une herbe rhizomateuse rampante qui se développe dans la forêt tropicale, sur des rochers à proximité de cours d'eau, à une altitude d'environ 460 m.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle figure sur la liste rouge de l'UICN comme une « espèce en danger », du fait de sa rareté et de la déforestation en faveur de l'agriculture sur le site de Bechati[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle figure sur la liste rouge de l'UICN comme une « espèce en danger », du fait de sa rareté et de la déforestation en faveur de l'agriculture sur le site de Bechati.
 </t>
         </is>
       </c>
